--- a/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>4/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -602,17 +605,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -622,6 +622,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,7 +1155,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1198,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1262,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,7 +1322,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1388,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1448,7 +1451,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1549,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1608,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1673,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1716,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1791,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +1977,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2043,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,7 +2101,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2167,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2223,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2298,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2341,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2407,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2463,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,9 +2939,9 @@
   <dimension ref="A2:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,14 +2971,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2986,16 +2989,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35814</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3008,16 +3011,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3043,18 +3046,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3101,7 +3104,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>51.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3111,7 +3114,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4499,15 +4502,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44958</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4515,15 +4522,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>44986</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4531,10 +4542,16 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -4544,7 +4561,9 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
@@ -5780,17 +5799,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5858,14 +5877,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5876,16 +5895,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35814</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5898,16 +5917,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5933,18 +5952,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7372,17 +7391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">

--- a/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>4/26,27/2023</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -2939,9 +2942,9 @@
   <dimension ref="A2:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,7 +3107,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.75</v>
+        <v>53</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3114,7 +3117,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4545,31 +4548,33 @@
       <c r="A80" s="40">
         <v>45017</v>
       </c>
-      <c r="B80" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="39">
-        <v>2</v>
-      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
+      <c r="A81" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>2</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4579,7 +4584,9 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
@@ -5845,9 +5852,9 @@
   <dimension ref="A2:K93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6010,7 +6017,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>160.72</v>
+        <v>158.72</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6127,9 +6134,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>2</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13" t="str">
@@ -6139,7 +6150,9 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="K15" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>

--- a/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>05/29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -608,14 +614,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -625,9 +634,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,7 +1164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,7 +1558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1794,7 +1800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2947,7 @@
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
@@ -2974,14 +2980,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2992,16 +2998,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35814</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3014,16 +3020,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3049,18 +3055,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5806,17 +5812,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5851,10 +5857,10 @@
   </sheetPr>
   <dimension ref="A2:K93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,14 +5890,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5902,16 +5908,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35814</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5924,16 +5930,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5959,18 +5965,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6027,7 +6033,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.5</v>
+        <v>131.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6156,7 +6162,9 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
-      <c r="B16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="39"/>
       <c r="E16" s="9"/>
@@ -6165,10 +6173,14 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="39"/>
+      <c r="H16" s="39">
+        <v>1</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
@@ -6181,7 +6193,9 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39">
+        <v>2</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
@@ -7404,17 +7418,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">

--- a/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AALA, MELODY MARASIGAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>05/29,30/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -614,17 +617,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,6 +634,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1164,7 +1167,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1210,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1274,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1334,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1400,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1463,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1561,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1620,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1685,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1728,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1803,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1989,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2055,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2113,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2179,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2235,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2310,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,7 +2353,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2419,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2475,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2950,7 @@
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
@@ -2980,14 +2983,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2998,16 +3001,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35814</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3020,16 +3023,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3055,18 +3058,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5812,17 +5815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5857,10 +5860,10 @@
   </sheetPr>
   <dimension ref="A2:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,14 +5893,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5908,16 +5911,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35814</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5930,16 +5933,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5965,18 +5968,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6174,7 +6177,7 @@
         <v/>
       </c>
       <c r="H16" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
@@ -6183,8 +6186,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="40">
+        <v>45096</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
@@ -6194,11 +6201,13 @@
         <v/>
       </c>
       <c r="H17" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="49">
+        <v>45093</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
@@ -7418,17 +7427,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
